--- a/DIA DATA BASE.xlsx
+++ b/DIA DATA BASE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elnnon.caracas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elnnon\Documents\GitHub\DIADB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DB3AFA3-60FC-455A-96F2-2C780A782C66}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIA_DB_P1" sheetId="2" r:id="rId1"/>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="283">
   <si>
     <t>RESOURCES11</t>
   </si>
@@ -767,12 +768,225 @@
   </si>
   <si>
     <t>Checked that customer has internet access</t>
+  </si>
+  <si>
+    <t>Asked customer for purchase source and type of product (Perpetual, Subscription, Education)</t>
+  </si>
+  <si>
+    <t>Checked for email address registered with the product</t>
+  </si>
+  <si>
+    <t>Asked customer to verify product key at: setup.office.com</t>
+  </si>
+  <si>
+    <t>Online Purchase: Had customer to chek order history at microsoft account</t>
+  </si>
+  <si>
+    <t>Asked for proof of purchase.</t>
+  </si>
+  <si>
+    <t>Received Proof of purchase via email. Escalated to Tier 2</t>
+  </si>
+  <si>
+    <t>Unable to get proof of purchase from the customer.</t>
+  </si>
+  <si>
+    <t>Restarted PC and attempted to install office again</t>
+  </si>
+  <si>
+    <t>Verify if there are other office versions installed on the computer.</t>
+  </si>
+  <si>
+    <t>Checked for Windows Updates if pending to install.</t>
+  </si>
+  <si>
+    <t>Allowed PC to install Updates.</t>
+  </si>
+  <si>
+    <t>Killed windows Update service. Through services.msc</t>
+  </si>
+  <si>
+    <t>Attempted to install office again</t>
+  </si>
+  <si>
+    <t>Attempted to install using offline installer</t>
+  </si>
+  <si>
+    <t>Re-enabled windows update service.</t>
+  </si>
+  <si>
+    <t>Check for older office installations at control panel</t>
+  </si>
+  <si>
+    <t>Uninstall older office versions.</t>
+  </si>
+  <si>
+    <t>Try using easy-fix tool to remove any traces from previous installations or if office it is not listed at control panel</t>
+  </si>
+  <si>
+    <t>Attempt Installation again</t>
+  </si>
+  <si>
+    <t>Checked if other office versions are installed.</t>
+  </si>
+  <si>
+    <t>Removed other office versions from the PC</t>
+  </si>
+  <si>
+    <t>Restarted computer and attempted to install office.</t>
+  </si>
+  <si>
+    <t>https://support.office.com/en-us/article/uninstall-office-from-a-pc-9dd49b83-264a-477a-8fcc-2fdf5dbf61d8?ui=en-US&amp;rs=en-US&amp;ad=US</t>
+  </si>
+  <si>
+    <t>https://answers.microsoft.com/en-us/office/forum/office_2013_release-office_install/office-2013-installation-error-something-went/87e550fe-5b5f-4599-bb6b-198d0e188d0e</t>
+  </si>
+  <si>
+    <t>Microsoft Community:Office 2013 Installation Error "Something went wrong"</t>
+  </si>
+  <si>
+    <t>This is an error message from office 2007 and 2003 which are no longer supported by us</t>
+  </si>
+  <si>
+    <t>Offer office365 and explain its benefits</t>
+  </si>
+  <si>
+    <t>This error comes from office 2003 and 2007, when customers try to use a volume licensed PK with a retail version of office.</t>
+  </si>
+  <si>
+    <t>Explained customer that office 2003 and 2007 are no longer supported, and no backup media or downloads are available anymore.</t>
+  </si>
+  <si>
+    <t>Offered office365 and explained benefits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Community:  Activation Error: 0XC004F061 &amp; This copy of windows is not genuine </t>
+  </si>
+  <si>
+    <t>https://answers.microsoft.com/en-us/windows/forum/windows_7-windows_install/activation-error-0xc004f061-this-copy-of-windows/900650a5-81fa-4048-a92d-f88481f048fa</t>
+  </si>
+  <si>
+    <t>https://social.microsoft.com/Forums/en-US/4c4d1046-0585-4ddf-b57f-544860a39218/this-copy-of-microsoft-office-is-not-genuine-office-professional-2003?forum=genuineoffice</t>
+  </si>
+  <si>
+    <t>Microsoft Forums:"This copy of Microsoft Office is not genuine" - Office Professional 2003</t>
+  </si>
+  <si>
+    <t>https://support.office.com/en-us/article/Change-your-Office-product-key-d78cf8f7-239e-4649-b726-3a8d2ceb8c81</t>
+  </si>
+  <si>
+    <t>Change your Office product key</t>
+  </si>
+  <si>
+    <t>Uninstall Office from PC (use easy fix tool if needed)</t>
+  </si>
+  <si>
+    <t>Have customer download their office installer from office.com/myaccount</t>
+  </si>
+  <si>
+    <t>Use command line script to remove any existing PK's</t>
+  </si>
+  <si>
+    <t>Have customer log in to office.com/myaccount</t>
+  </si>
+  <si>
+    <t>Copy product key</t>
+  </si>
+  <si>
+    <t>Insert product key using command line script</t>
+  </si>
+  <si>
+    <t>Select the office product to activate and click "View your product Key"</t>
+  </si>
+  <si>
+    <t>Open any office app so it can be activated</t>
+  </si>
+  <si>
+    <t>In case it does not activate, try running any office app as administrator.</t>
+  </si>
+  <si>
+    <t>Removed existig office installation</t>
+  </si>
+  <si>
+    <t>Dowloaded office from customer's account</t>
+  </si>
+  <si>
+    <t>Removed all product keys using command script and inserted new one.</t>
+  </si>
+  <si>
+    <t>Reinstalled office</t>
+  </si>
+  <si>
+    <t>Opened office apps</t>
+  </si>
+  <si>
+    <t>Reinstall Office 2013 after an Office 2016 upgrade</t>
+  </si>
+  <si>
+    <t>https://support.office.com/en-US/article/Reinstall-Office-2013-after-an-Office-2016-upgrade-a6ca92f4-cbb4-4609-9fdb-f8d3dd6812f3</t>
+  </si>
+  <si>
+    <t>For office 365 subscriptions there's no way to go back to an earlier version of office. Eg: Roll back from 2016 to 2013.</t>
+  </si>
+  <si>
+    <t>Perpetual: Remove any office installation and install the office version customer requires, as long as they have the install media and PK.</t>
+  </si>
+  <si>
+    <t>Office 2003 and 2007 are not supported at all. Please set proper expectations with customer.</t>
+  </si>
+  <si>
+    <t>How to revert to an earlier version of Office 2013 or Office 2016 Click-to-Run</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-gb/help/2770432/how-to-revert-to-an-earlier-version-of-office-2013-or-office-2016-clic</t>
+  </si>
+  <si>
+    <t>Determine if customer is using 32bit or 64 bit Office</t>
+  </si>
+  <si>
+    <t>Locate installation folder of office</t>
+  </si>
+  <si>
+    <t>Open command prompt as administrator</t>
+  </si>
+  <si>
+    <t>Determine the version to downgrade</t>
+  </si>
+  <si>
+    <t>Run commands required for the office version</t>
+  </si>
+  <si>
+    <t>Disable automatic updates.</t>
+  </si>
+  <si>
+    <t>Advise customer to enable automatic updates once issue is resolved by future update.</t>
+  </si>
+  <si>
+    <t>O365: Explained customer that we cannot downgrade from one office version to another.</t>
+  </si>
+  <si>
+    <t>O365: Informed we can rollback changes from small updates (minor versions) of office but not major versions.</t>
+  </si>
+  <si>
+    <t>Office 365: It's possible to rollback minor updates from an office installation.</t>
+  </si>
+  <si>
+    <t>O365:Located version and install folder.</t>
+  </si>
+  <si>
+    <t>Ran command prompt as administrator.</t>
+  </si>
+  <si>
+    <t>Ran commands to rollback to previous version.</t>
+  </si>
+  <si>
+    <t>Disabled automatic updates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,7 +1112,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="54">
@@ -2581,79 +2795,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table8" displayName="Table8" ref="A1:O26" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
-  <autoFilter ref="A1:O26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table8" displayName="Table8" ref="A1:O26" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
+  <autoFilter ref="A1:O26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="App missing in programs and features" dataDxfId="50"/>
-    <tableColumn id="2" name="Customer doesn't know how to activate or install" dataDxfId="49"/>
-    <tableColumn id="3" name="Customer doesn't know where to download from" dataDxfId="48"/>
-    <tableColumn id="4" name="Customer needs to retrieve product key for perpetual after reinstall" dataDxfId="47"/>
-    <tableColumn id="5" name="Displays &quot;unlicensed product&quot; in title bar or in File/Account menu" dataDxfId="46"/>
-    <tableColumn id="6" name="Download / install is hanging" dataDxfId="45"/>
-    <tableColumn id="7" name="Error 0x80070057" dataDxfId="44"/>
-    <tableColumn id="8" name="Error redeeming Office" dataDxfId="43"/>
-    <tableColumn id="9" name="Error: Couldn't install. We're sorry, we had a problem installing your Office program(s). [Internet Issue]" dataDxfId="42"/>
-    <tableColumn id="10" name="Error: Microsoft Office isn't associated with this account" dataDxfId="41"/>
-    <tableColumn id="11" name="Error: Something went wrong. Office can't do that right now because your product is busy with another task." dataDxfId="40"/>
-    <tableColumn id="12" name="Error: Something went wrong. Sorry, we ran into a problem. Try going online for additional help" dataDxfId="39"/>
-    <tableColumn id="13" name="Error: This copy of Microsoft Office is not genuine" dataDxfId="38"/>
-    <tableColumn id="14" name="How do I change my product key?" dataDxfId="37"/>
-    <tableColumn id="15" name="How do I downgrade to a legacy version or lower SKU?" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="App missing in programs and features" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Customer doesn't know how to activate or install" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Customer doesn't know where to download from" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Customer needs to retrieve product key for perpetual after reinstall" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Displays &quot;unlicensed product&quot; in title bar or in File/Account menu" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Download / install is hanging" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Error 0x80070057" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Error redeeming Office" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Error: Couldn't install. We're sorry, we had a problem installing your Office program(s). [Internet Issue]" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Error: Microsoft Office isn't associated with this account" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Error: Something went wrong. Office can't do that right now because your product is busy with another task." dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Error: Something went wrong. Sorry, we ran into a problem. Try going online for additional help" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Error: This copy of Microsoft Office is not genuine" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="How do I change my product key?" dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="How do I downgrade to a legacy version or lower SKU?" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A31:O56" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A31:O56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A31:O56" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A31:O56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="NOTES1" dataDxfId="32"/>
-    <tableColumn id="2" name="NOTES2" dataDxfId="31"/>
-    <tableColumn id="3" name="NOTES3" dataDxfId="30"/>
-    <tableColumn id="4" name="NOTES4" dataDxfId="29"/>
-    <tableColumn id="5" name="NOTES5" dataDxfId="28"/>
-    <tableColumn id="6" name="NOTES6" dataDxfId="27"/>
-    <tableColumn id="7" name="NOTES7" dataDxfId="26"/>
-    <tableColumn id="8" name="NOTES8" dataDxfId="25"/>
-    <tableColumn id="9" name="NOTES9" dataDxfId="24"/>
-    <tableColumn id="10" name="NOTES10" dataDxfId="23"/>
-    <tableColumn id="11" name="NOTES11" dataDxfId="22"/>
-    <tableColumn id="12" name="NOTES12" dataDxfId="21"/>
-    <tableColumn id="13" name="NOTES13" dataDxfId="20"/>
-    <tableColumn id="14" name="NOTES14" dataDxfId="19"/>
-    <tableColumn id="15" name="NOTES15" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NOTES1" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NOTES2" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NOTES3" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NOTES4" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="NOTES5" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="NOTES6" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="NOTES7" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="NOTES8" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="NOTES9" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="NOTES10" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="NOTES11" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="NOTES12" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="NOTES13" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="NOTES14" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="NOTES15" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table4" displayName="Table4" ref="A69:O84" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A69:O84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A69:O84" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A69:O84" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="RESOURCES" dataDxfId="14"/>
-    <tableColumn id="2" name="RESOURCES2" dataDxfId="13"/>
-    <tableColumn id="3" name="RESOURCES3" dataDxfId="12"/>
-    <tableColumn id="4" name="RESOURCES4" dataDxfId="11"/>
-    <tableColumn id="5" name="RESOURCES5" dataDxfId="10"/>
-    <tableColumn id="6" name="RESOURCES6" dataDxfId="9"/>
-    <tableColumn id="7" name="RESOURCES7" dataDxfId="8"/>
-    <tableColumn id="8" name="RESOURCES8" dataDxfId="7"/>
-    <tableColumn id="9" name="RESOURCES9" dataDxfId="6"/>
-    <tableColumn id="10" name="RESOURCES10" dataDxfId="5"/>
-    <tableColumn id="11" name="RESOURCES11" dataDxfId="4"/>
-    <tableColumn id="12" name="RESOURCES12" dataDxfId="3"/>
-    <tableColumn id="13" name="RESOURCES13" dataDxfId="2"/>
-    <tableColumn id="14" name="RESOURCES14" dataDxfId="1"/>
-    <tableColumn id="15" name="RESOURCES15" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RESOURCES" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="RESOURCES2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="RESOURCES3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="RESOURCES4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="RESOURCES5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="RESOURCES6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="RESOURCES7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="RESOURCES8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="RESOURCES9" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="RESOURCES10" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="RESOURCES11" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="RESOURCES12" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="RESOURCES13" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="RESOURCES14" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RESOURCES15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2948,35 +3162,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="82.796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="84.3984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="96.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="72.73046875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="72.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="46" style="8" customWidth="1"/>
-    <col min="7" max="7" width="126.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="99.86328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.59765625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="146.46484375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="95.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="126.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="99.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="146.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="95.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="85" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.9296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="1"/>
+    <col min="13" max="13" width="68.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
@@ -3023,7 +3237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -3057,12 +3271,20 @@
       <c r="K2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
@@ -3096,12 +3318,20 @@
       <c r="K3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -3135,12 +3365,18 @@
       <c r="K4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -3172,12 +3408,18 @@
       <c r="K5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>74</v>
@@ -3207,12 +3449,18 @@
       <c r="K6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="16"/>
@@ -3236,12 +3484,18 @@
       <c r="K7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="16"/>
@@ -3261,10 +3515,14 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="16"/>
@@ -3282,10 +3540,14 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="16"/>
@@ -3303,10 +3565,14 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -3325,9 +3591,11 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O11" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="16"/>
@@ -3346,9 +3614,11 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O12" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
@@ -3367,7 +3637,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
@@ -3386,7 +3656,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -3405,7 +3675,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
@@ -3422,7 +3692,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -3439,7 +3709,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3456,7 +3726,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3473,7 +3743,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3490,7 +3760,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3507,7 +3777,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3524,7 +3794,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3541,7 +3811,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3558,7 +3828,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3575,7 +3845,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3592,7 +3862,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -3639,7 +3909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>144</v>
       </c>
@@ -3667,14 +3937,26 @@
       <c r="I32" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J32" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
@@ -3702,14 +3984,26 @@
       <c r="I33" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J33" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>145</v>
       </c>
@@ -3737,14 +4031,26 @@
       <c r="I34" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J34" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
         <v>149</v>
@@ -3770,14 +4076,22 @@
       <c r="I35" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="J35" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N35" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="12" t="s">
         <v>151</v>
@@ -3803,14 +4117,22 @@
       <c r="I36" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="J36" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>223</v>
+      </c>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N36" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="12" t="s">
         <v>154</v>
@@ -3832,14 +4154,20 @@
       <c r="I37" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="J37" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>224</v>
+      </c>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O37" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="12" t="s">
         <v>152</v>
@@ -3859,14 +4187,18 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="J38" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>225</v>
+      </c>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="12" t="s">
         <v>150</v>
@@ -3887,13 +4219,15 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="12" t="s">
+        <v>226</v>
+      </c>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="12" t="s">
         <v>153</v>
@@ -3920,7 +4254,7 @@
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11" t="s">
@@ -3945,7 +4279,7 @@
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13" t="s">
@@ -3970,7 +4304,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="12"/>
       <c r="C43" s="11" t="s">
@@ -3995,7 +4329,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11" t="s">
@@ -4016,7 +4350,7 @@
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -4033,7 +4367,7 @@
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="11"/>
@@ -4050,7 +4384,7 @@
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="10"/>
       <c r="C47" s="12"/>
@@ -4067,7 +4401,7 @@
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -4084,7 +4418,7 @@
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -4101,7 +4435,7 @@
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -4118,7 +4452,7 @@
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -4135,7 +4469,7 @@
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -4152,7 +4486,7 @@
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -4169,7 +4503,7 @@
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -4186,7 +4520,7 @@
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -4203,7 +4537,7 @@
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -4220,7 +4554,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
@@ -4267,7 +4601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>99</v>
       </c>
@@ -4301,12 +4635,20 @@
       <c r="K70" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-    </row>
-    <row r="71" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>109</v>
       </c>
@@ -4340,12 +4682,20 @@
       <c r="K71" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-    </row>
-    <row r="72" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L71" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -4371,12 +4721,18 @@
       <c r="K72" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
+      <c r="L72" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-    </row>
-    <row r="73" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O72" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>125</v>
       </c>
@@ -4402,12 +4758,18 @@
       <c r="K73" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
+      <c r="L73" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-    </row>
-    <row r="74" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O73" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
         <v>130</v>
@@ -4434,7 +4796,7 @@
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="6" t="s">
         <v>116</v>
@@ -4461,7 +4823,7 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -4480,7 +4842,7 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -4499,7 +4861,7 @@
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -4518,7 +4880,7 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -4537,7 +4899,7 @@
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -4554,7 +4916,7 @@
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -4571,7 +4933,7 @@
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -4588,7 +4950,7 @@
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -4605,7 +4967,7 @@
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -4622,7 +4984,7 @@
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -4639,7 +5001,7 @@
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -4656,7 +5018,7 @@
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -4673,7 +5035,7 @@
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
@@ -4690,7 +5052,7 @@
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4707,7 +5069,7 @@
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -4724,7 +5086,7 @@
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -4741,7 +5103,7 @@
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -4758,7 +5120,7 @@
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -4775,7 +5137,7 @@
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
@@ -4792,7 +5154,7 @@
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -4809,7 +5171,7 @@
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -4826,7 +5188,7 @@
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -4843,7 +5205,7 @@
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
@@ -4860,7 +5222,7 @@
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:15" s="7" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -4877,7 +5239,7 @@
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
@@ -4894,7 +5256,7 @@
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4923,14 +5285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
